--- a/published-data/fonds-solidarite/fds-2022-06-24/fonds-solidarite-volet-1-departemental-naf.xlsx
+++ b/published-data/fonds-solidarite/fds-2022-06-24/fonds-solidarite-volet-1-departemental-naf.xlsx
@@ -7693,13 +7693,13 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>21467</v>
+        <v>21468</v>
       </c>
       <c r="D143" t="n">
         <v>2189</v>
       </c>
       <c r="E143" t="n">
-        <v>112007825</v>
+        <v>112013571</v>
       </c>
       <c r="F143" t="inlineStr">
         <is>
@@ -22432,13 +22432,13 @@
         </is>
       </c>
       <c r="C432" t="n">
-        <v>4306</v>
+        <v>4307</v>
       </c>
       <c r="D432" t="n">
         <v>1029</v>
       </c>
       <c r="E432" t="n">
-        <v>8648726</v>
+        <v>8649403</v>
       </c>
       <c r="F432" t="inlineStr">
         <is>
@@ -29521,13 +29521,13 @@
         </is>
       </c>
       <c r="C571" t="n">
-        <v>3252</v>
+        <v>3253</v>
       </c>
       <c r="D571" t="n">
         <v>655</v>
       </c>
       <c r="E571" t="n">
-        <v>8215015</v>
+        <v>8217078</v>
       </c>
       <c r="F571" t="inlineStr">
         <is>
@@ -36253,13 +36253,13 @@
         </is>
       </c>
       <c r="C703" t="n">
-        <v>19729</v>
+        <v>19731</v>
       </c>
       <c r="D703" t="n">
         <v>2228</v>
       </c>
       <c r="E703" t="n">
-        <v>56645610</v>
+        <v>56664962</v>
       </c>
       <c r="F703" t="inlineStr">
         <is>
@@ -43087,13 +43087,13 @@
         </is>
       </c>
       <c r="C837" t="n">
-        <v>40354</v>
+        <v>40355</v>
       </c>
       <c r="D837" t="n">
         <v>4219</v>
       </c>
       <c r="E837" t="n">
-        <v>286800589</v>
+        <v>286810589</v>
       </c>
       <c r="F837" t="inlineStr">
         <is>
@@ -43546,13 +43546,13 @@
         </is>
       </c>
       <c r="C846" t="n">
-        <v>16493</v>
+        <v>16494</v>
       </c>
       <c r="D846" t="n">
         <v>3309</v>
       </c>
       <c r="E846" t="n">
-        <v>40647739</v>
+        <v>40657739</v>
       </c>
       <c r="F846" t="inlineStr">
         <is>
@@ -43852,13 +43852,13 @@
         </is>
       </c>
       <c r="C852" t="n">
-        <v>108662</v>
+        <v>108663</v>
       </c>
       <c r="D852" t="n">
         <v>19716</v>
       </c>
       <c r="E852" t="n">
-        <v>562267782</v>
+        <v>562278984</v>
       </c>
       <c r="F852" t="inlineStr">
         <is>
@@ -43903,13 +43903,13 @@
         </is>
       </c>
       <c r="C853" t="n">
-        <v>90274</v>
+        <v>90275</v>
       </c>
       <c r="D853" t="n">
         <v>10476</v>
       </c>
       <c r="E853" t="n">
-        <v>233026956</v>
+        <v>233030542</v>
       </c>
       <c r="F853" t="inlineStr">
         <is>
@@ -43954,13 +43954,13 @@
         </is>
       </c>
       <c r="C854" t="n">
-        <v>182316</v>
+        <v>182318</v>
       </c>
       <c r="D854" t="n">
         <v>17497</v>
       </c>
       <c r="E854" t="n">
-        <v>1649297508</v>
+        <v>1649308622</v>
       </c>
       <c r="F854" t="inlineStr">
         <is>
@@ -44005,13 +44005,13 @@
         </is>
       </c>
       <c r="C855" t="n">
-        <v>60088</v>
+        <v>60090</v>
       </c>
       <c r="D855" t="n">
         <v>9814</v>
       </c>
       <c r="E855" t="n">
-        <v>289861253</v>
+        <v>289876581</v>
       </c>
       <c r="F855" t="inlineStr">
         <is>
@@ -44107,13 +44107,13 @@
         </is>
       </c>
       <c r="C857" t="n">
-        <v>23236</v>
+        <v>23237</v>
       </c>
       <c r="D857" t="n">
         <v>4430</v>
       </c>
       <c r="E857" t="n">
-        <v>82778537</v>
+        <v>82788537</v>
       </c>
       <c r="F857" t="inlineStr">
         <is>
@@ -44158,13 +44158,13 @@
         </is>
       </c>
       <c r="C858" t="n">
-        <v>183959</v>
+        <v>183965</v>
       </c>
       <c r="D858" t="n">
         <v>35383</v>
       </c>
       <c r="E858" t="n">
-        <v>554493315</v>
+        <v>554596935</v>
       </c>
       <c r="F858" t="inlineStr">
         <is>
@@ -44209,13 +44209,13 @@
         </is>
       </c>
       <c r="C859" t="n">
-        <v>51342</v>
+        <v>51343</v>
       </c>
       <c r="D859" t="n">
         <v>6433</v>
       </c>
       <c r="E859" t="n">
-        <v>424532640</v>
+        <v>424679991</v>
       </c>
       <c r="F859" t="inlineStr">
         <is>
@@ -44260,13 +44260,13 @@
         </is>
       </c>
       <c r="C860" t="n">
-        <v>34668</v>
+        <v>34670</v>
       </c>
       <c r="D860" t="n">
         <v>5556</v>
       </c>
       <c r="E860" t="n">
-        <v>70117042</v>
+        <v>70123618</v>
       </c>
       <c r="F860" t="inlineStr">
         <is>
@@ -44362,13 +44362,13 @@
         </is>
       </c>
       <c r="C862" t="n">
-        <v>115022</v>
+        <v>115023</v>
       </c>
       <c r="D862" t="n">
         <v>14332</v>
       </c>
       <c r="E862" t="n">
-        <v>418938511</v>
+        <v>418940659</v>
       </c>
       <c r="F862" t="inlineStr">
         <is>
@@ -44413,13 +44413,13 @@
         </is>
       </c>
       <c r="C863" t="n">
-        <v>48568</v>
+        <v>48573</v>
       </c>
       <c r="D863" t="n">
         <v>8874</v>
       </c>
       <c r="E863" t="n">
-        <v>133220497</v>
+        <v>133232750</v>
       </c>
       <c r="F863" t="inlineStr">
         <is>
@@ -45637,13 +45637,13 @@
         </is>
       </c>
       <c r="C887" t="n">
-        <v>127517</v>
+        <v>127520</v>
       </c>
       <c r="D887" t="n">
         <v>13778</v>
       </c>
       <c r="E887" t="n">
-        <v>277532790</v>
+        <v>277541052</v>
       </c>
       <c r="F887" t="inlineStr">
         <is>
@@ -45739,13 +45739,13 @@
         </is>
       </c>
       <c r="C889" t="n">
-        <v>9195</v>
+        <v>9196</v>
       </c>
       <c r="D889" t="n">
         <v>1689</v>
       </c>
       <c r="E889" t="n">
-        <v>23344310</v>
+        <v>23354310</v>
       </c>
       <c r="F889" t="inlineStr">
         <is>
@@ -45892,13 +45892,13 @@
         </is>
       </c>
       <c r="C892" t="n">
-        <v>25958</v>
+        <v>25959</v>
       </c>
       <c r="D892" t="n">
         <v>5120</v>
       </c>
       <c r="E892" t="n">
-        <v>67483898</v>
+        <v>67484198</v>
       </c>
       <c r="F892" t="inlineStr">
         <is>
@@ -45943,13 +45943,13 @@
         </is>
       </c>
       <c r="C893" t="n">
-        <v>11752</v>
+        <v>11754</v>
       </c>
       <c r="D893" t="n">
         <v>1958</v>
       </c>
       <c r="E893" t="n">
-        <v>55429534</v>
+        <v>55433813</v>
       </c>
       <c r="F893" t="inlineStr">
         <is>
@@ -49156,13 +49156,13 @@
         </is>
       </c>
       <c r="C956" t="n">
-        <v>19711</v>
+        <v>19712</v>
       </c>
       <c r="D956" t="n">
         <v>2625</v>
       </c>
       <c r="E956" t="n">
-        <v>66197569</v>
+        <v>66204904</v>
       </c>
       <c r="F956" t="inlineStr">
         <is>
@@ -63283,13 +63283,13 @@
         </is>
       </c>
       <c r="C1233" t="n">
-        <v>7393</v>
+        <v>7394</v>
       </c>
       <c r="D1233" t="n">
         <v>1711</v>
       </c>
       <c r="E1233" t="n">
-        <v>19349759</v>
+        <v>19500422</v>
       </c>
       <c r="F1233" t="inlineStr">
         <is>
@@ -72310,13 +72310,13 @@
         </is>
       </c>
       <c r="C1410" t="n">
-        <v>26312</v>
+        <v>26313</v>
       </c>
       <c r="D1410" t="n">
         <v>5346</v>
       </c>
       <c r="E1410" t="n">
-        <v>78454383</v>
+        <v>78464383</v>
       </c>
       <c r="F1410" t="inlineStr">
         <is>
@@ -75013,13 +75013,13 @@
         </is>
       </c>
       <c r="C1463" t="n">
-        <v>7839</v>
+        <v>7840</v>
       </c>
       <c r="D1463" t="n">
         <v>1729</v>
       </c>
       <c r="E1463" t="n">
-        <v>14375987</v>
+        <v>14427634</v>
       </c>
       <c r="F1463" t="inlineStr">
         <is>
@@ -82612,13 +82612,13 @@
         </is>
       </c>
       <c r="C1612" t="n">
-        <v>19547</v>
+        <v>19548</v>
       </c>
       <c r="D1612" t="n">
         <v>2258</v>
       </c>
       <c r="E1612" t="n">
-        <v>62285211</v>
+        <v>62295211</v>
       </c>
       <c r="F1612" t="inlineStr">
         <is>
@@ -85672,13 +85672,13 @@
         </is>
       </c>
       <c r="C1672" t="n">
-        <v>25350</v>
+        <v>25351</v>
       </c>
       <c r="D1672" t="n">
         <v>2703</v>
       </c>
       <c r="E1672" t="n">
-        <v>143673572</v>
+        <v>143688565</v>
       </c>
       <c r="F1672" t="inlineStr">
         <is>

--- a/published-data/fonds-solidarite/fds-2022-06-24/fonds-solidarite-volet-1-departemental-naf.xlsx
+++ b/published-data/fonds-solidarite/fds-2022-06-24/fonds-solidarite-volet-1-departemental-naf.xlsx
@@ -8968,13 +8968,13 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>7167</v>
+        <v>7168</v>
       </c>
       <c r="D168" t="n">
         <v>864</v>
       </c>
       <c r="E168" t="n">
-        <v>23974833</v>
+        <v>23974950</v>
       </c>
       <c r="F168" t="inlineStr">
         <is>
@@ -43036,13 +43036,13 @@
         </is>
       </c>
       <c r="C836" t="n">
-        <v>78168</v>
+        <v>78169</v>
       </c>
       <c r="D836" t="n">
         <v>8364</v>
       </c>
       <c r="E836" t="n">
-        <v>184744920</v>
+        <v>184749597</v>
       </c>
       <c r="F836" t="inlineStr">
         <is>
@@ -43801,13 +43801,13 @@
         </is>
       </c>
       <c r="C851" t="n">
-        <v>16547</v>
+        <v>16552</v>
       </c>
       <c r="D851" t="n">
         <v>4837</v>
       </c>
       <c r="E851" t="n">
-        <v>32814517</v>
+        <v>32825801</v>
       </c>
       <c r="F851" t="inlineStr">
         <is>
@@ -43852,13 +43852,13 @@
         </is>
       </c>
       <c r="C852" t="n">
-        <v>108663</v>
+        <v>108669</v>
       </c>
       <c r="D852" t="n">
         <v>19716</v>
       </c>
       <c r="E852" t="n">
-        <v>562278984</v>
+        <v>562523540</v>
       </c>
       <c r="F852" t="inlineStr">
         <is>
@@ -43903,13 +43903,13 @@
         </is>
       </c>
       <c r="C853" t="n">
-        <v>90275</v>
+        <v>90277</v>
       </c>
       <c r="D853" t="n">
         <v>10476</v>
       </c>
       <c r="E853" t="n">
-        <v>233030542</v>
+        <v>233037792</v>
       </c>
       <c r="F853" t="inlineStr">
         <is>
@@ -43954,13 +43954,13 @@
         </is>
       </c>
       <c r="C854" t="n">
-        <v>182318</v>
+        <v>182332</v>
       </c>
       <c r="D854" t="n">
         <v>17497</v>
       </c>
       <c r="E854" t="n">
-        <v>1649308622</v>
+        <v>1649449800</v>
       </c>
       <c r="F854" t="inlineStr">
         <is>
@@ -44158,13 +44158,13 @@
         </is>
       </c>
       <c r="C858" t="n">
-        <v>183965</v>
+        <v>183969</v>
       </c>
       <c r="D858" t="n">
         <v>35383</v>
       </c>
       <c r="E858" t="n">
-        <v>554596935</v>
+        <v>554611997</v>
       </c>
       <c r="F858" t="inlineStr">
         <is>
@@ -44209,13 +44209,13 @@
         </is>
       </c>
       <c r="C859" t="n">
-        <v>51343</v>
+        <v>51346</v>
       </c>
       <c r="D859" t="n">
         <v>6433</v>
       </c>
       <c r="E859" t="n">
-        <v>424679991</v>
+        <v>425085323</v>
       </c>
       <c r="F859" t="inlineStr">
         <is>
@@ -44260,13 +44260,13 @@
         </is>
       </c>
       <c r="C860" t="n">
-        <v>34670</v>
+        <v>34671</v>
       </c>
       <c r="D860" t="n">
         <v>5556</v>
       </c>
       <c r="E860" t="n">
-        <v>70123618</v>
+        <v>70125266</v>
       </c>
       <c r="F860" t="inlineStr">
         <is>
@@ -44362,13 +44362,13 @@
         </is>
       </c>
       <c r="C862" t="n">
-        <v>115023</v>
+        <v>115028</v>
       </c>
       <c r="D862" t="n">
         <v>14332</v>
       </c>
       <c r="E862" t="n">
-        <v>418940659</v>
+        <v>418982116</v>
       </c>
       <c r="F862" t="inlineStr">
         <is>
@@ -44413,13 +44413,13 @@
         </is>
       </c>
       <c r="C863" t="n">
-        <v>48573</v>
+        <v>48576</v>
       </c>
       <c r="D863" t="n">
         <v>8874</v>
       </c>
       <c r="E863" t="n">
-        <v>133232750</v>
+        <v>133238201</v>
       </c>
       <c r="F863" t="inlineStr">
         <is>
@@ -45586,13 +45586,13 @@
         </is>
       </c>
       <c r="C886" t="n">
-        <v>40900</v>
+        <v>40902</v>
       </c>
       <c r="D886" t="n">
         <v>8380</v>
       </c>
       <c r="E886" t="n">
-        <v>166033805</v>
+        <v>166050329</v>
       </c>
       <c r="F886" t="inlineStr">
         <is>
@@ -45739,13 +45739,13 @@
         </is>
       </c>
       <c r="C889" t="n">
-        <v>9196</v>
+        <v>9198</v>
       </c>
       <c r="D889" t="n">
         <v>1689</v>
       </c>
       <c r="E889" t="n">
-        <v>23354310</v>
+        <v>23366608</v>
       </c>
       <c r="F889" t="inlineStr">
         <is>
@@ -46453,13 +46453,13 @@
         </is>
       </c>
       <c r="C903" t="n">
-        <v>26104</v>
+        <v>26108</v>
       </c>
       <c r="D903" t="n">
         <v>5587</v>
       </c>
       <c r="E903" t="n">
-        <v>118354653</v>
+        <v>118583620</v>
       </c>
       <c r="F903" t="inlineStr">
         <is>
@@ -46504,13 +46504,13 @@
         </is>
       </c>
       <c r="C904" t="n">
-        <v>75233</v>
+        <v>75234</v>
       </c>
       <c r="D904" t="n">
         <v>8098</v>
       </c>
       <c r="E904" t="n">
-        <v>168711786</v>
+        <v>168715776</v>
       </c>
       <c r="F904" t="inlineStr">
         <is>
@@ -69556,13 +69556,13 @@
         </is>
       </c>
       <c r="C1356" t="n">
-        <v>6710</v>
+        <v>6711</v>
       </c>
       <c r="D1356" t="n">
         <v>704</v>
       </c>
       <c r="E1356" t="n">
-        <v>31265848</v>
+        <v>31266555</v>
       </c>
       <c r="F1356" t="inlineStr">
         <is>
@@ -77563,13 +77563,13 @@
         </is>
       </c>
       <c r="C1513" t="n">
-        <v>17938</v>
+        <v>17942</v>
       </c>
       <c r="D1513" t="n">
         <v>2408</v>
       </c>
       <c r="E1513" t="n">
-        <v>57072279</v>
+        <v>57090067</v>
       </c>
       <c r="F1513" t="inlineStr">
         <is>
@@ -80776,13 +80776,13 @@
         </is>
       </c>
       <c r="C1576" t="n">
-        <v>2928</v>
+        <v>2929</v>
       </c>
       <c r="D1576" t="n">
         <v>688</v>
       </c>
       <c r="E1576" t="n">
-        <v>12544833</v>
+        <v>12570374</v>
       </c>
       <c r="F1576" t="inlineStr">
         <is>

--- a/published-data/fonds-solidarite/fds-2022-06-24/fonds-solidarite-volet-1-departemental-naf.xlsx
+++ b/published-data/fonds-solidarite/fds-2022-06-24/fonds-solidarite-volet-1-departemental-naf.xlsx
@@ -6724,13 +6724,13 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>24698</v>
+        <v>24699</v>
       </c>
       <c r="D124" t="n">
         <v>5621</v>
       </c>
       <c r="E124" t="n">
-        <v>84269986</v>
+        <v>84271972</v>
       </c>
       <c r="F124" t="inlineStr">
         <is>
@@ -9325,13 +9325,13 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>44310</v>
+        <v>44311</v>
       </c>
       <c r="D175" t="n">
         <v>9920</v>
       </c>
       <c r="E175" t="n">
-        <v>138356006</v>
+        <v>138462006</v>
       </c>
       <c r="F175" t="inlineStr">
         <is>
@@ -24421,13 +24421,13 @@
         </is>
       </c>
       <c r="C471" t="n">
-        <v>13127</v>
+        <v>13128</v>
       </c>
       <c r="D471" t="n">
         <v>1442</v>
       </c>
       <c r="E471" t="n">
-        <v>76052852</v>
+        <v>76053966</v>
       </c>
       <c r="F471" t="inlineStr">
         <is>
@@ -26563,13 +26563,13 @@
         </is>
       </c>
       <c r="C513" t="n">
-        <v>3432</v>
+        <v>3433</v>
       </c>
       <c r="D513" t="n">
         <v>649</v>
       </c>
       <c r="E513" t="n">
-        <v>7343257</v>
+        <v>7348137</v>
       </c>
       <c r="F513" t="inlineStr">
         <is>
@@ -43852,13 +43852,13 @@
         </is>
       </c>
       <c r="C852" t="n">
-        <v>108669</v>
+        <v>108674</v>
       </c>
       <c r="D852" t="n">
         <v>19716</v>
       </c>
       <c r="E852" t="n">
-        <v>562523540</v>
+        <v>562571463</v>
       </c>
       <c r="F852" t="inlineStr">
         <is>
@@ -43903,13 +43903,13 @@
         </is>
       </c>
       <c r="C853" t="n">
-        <v>90277</v>
+        <v>90279</v>
       </c>
       <c r="D853" t="n">
         <v>10476</v>
       </c>
       <c r="E853" t="n">
-        <v>233037792</v>
+        <v>233046340</v>
       </c>
       <c r="F853" t="inlineStr">
         <is>
@@ -43954,13 +43954,13 @@
         </is>
       </c>
       <c r="C854" t="n">
-        <v>182332</v>
+        <v>182334</v>
       </c>
       <c r="D854" t="n">
         <v>17497</v>
       </c>
       <c r="E854" t="n">
-        <v>1649449800</v>
+        <v>1649470837</v>
       </c>
       <c r="F854" t="inlineStr">
         <is>
@@ -44005,13 +44005,13 @@
         </is>
       </c>
       <c r="C855" t="n">
-        <v>60090</v>
+        <v>60092</v>
       </c>
       <c r="D855" t="n">
         <v>9814</v>
       </c>
       <c r="E855" t="n">
-        <v>289876581</v>
+        <v>289889023</v>
       </c>
       <c r="F855" t="inlineStr">
         <is>
@@ -44158,13 +44158,13 @@
         </is>
       </c>
       <c r="C858" t="n">
-        <v>183969</v>
+        <v>183979</v>
       </c>
       <c r="D858" t="n">
         <v>35383</v>
       </c>
       <c r="E858" t="n">
-        <v>554611997</v>
+        <v>554642248</v>
       </c>
       <c r="F858" t="inlineStr">
         <is>
@@ -44260,13 +44260,13 @@
         </is>
       </c>
       <c r="C860" t="n">
-        <v>34671</v>
+        <v>34672</v>
       </c>
       <c r="D860" t="n">
         <v>5556</v>
       </c>
       <c r="E860" t="n">
-        <v>70125266</v>
+        <v>70125598</v>
       </c>
       <c r="F860" t="inlineStr">
         <is>
@@ -44362,13 +44362,13 @@
         </is>
       </c>
       <c r="C862" t="n">
-        <v>115028</v>
+        <v>115032</v>
       </c>
       <c r="D862" t="n">
         <v>14332</v>
       </c>
       <c r="E862" t="n">
-        <v>418982116</v>
+        <v>419013088</v>
       </c>
       <c r="F862" t="inlineStr">
         <is>
@@ -44413,13 +44413,13 @@
         </is>
       </c>
       <c r="C863" t="n">
-        <v>48576</v>
+        <v>48577</v>
       </c>
       <c r="D863" t="n">
         <v>8874</v>
       </c>
       <c r="E863" t="n">
-        <v>133238201</v>
+        <v>133248201</v>
       </c>
       <c r="F863" t="inlineStr">
         <is>
@@ -44821,13 +44821,13 @@
         </is>
       </c>
       <c r="C871" t="n">
-        <v>25070</v>
+        <v>25072</v>
       </c>
       <c r="D871" t="n">
         <v>2823</v>
       </c>
       <c r="E871" t="n">
-        <v>160432656</v>
+        <v>160453477</v>
       </c>
       <c r="F871" t="inlineStr">
         <is>
@@ -46096,13 +46096,13 @@
         </is>
       </c>
       <c r="C896" t="n">
-        <v>23640</v>
+        <v>23641</v>
       </c>
       <c r="D896" t="n">
         <v>3068</v>
       </c>
       <c r="E896" t="n">
-        <v>70473083</v>
+        <v>70474166</v>
       </c>
       <c r="F896" t="inlineStr">
         <is>
@@ -50023,13 +50023,13 @@
         </is>
       </c>
       <c r="C973" t="n">
-        <v>11131</v>
+        <v>11134</v>
       </c>
       <c r="D973" t="n">
         <v>1314</v>
       </c>
       <c r="E973" t="n">
-        <v>44392226</v>
+        <v>44546213</v>
       </c>
       <c r="F973" t="inlineStr">
         <is>

--- a/published-data/fonds-solidarite/fds-2022-06-24/fonds-solidarite-volet-1-departemental-naf.xlsx
+++ b/published-data/fonds-solidarite/fds-2022-06-24/fonds-solidarite-volet-1-departemental-naf.xlsx
@@ -7387,13 +7387,13 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>3819</v>
+        <v>3820</v>
       </c>
       <c r="D137" t="n">
         <v>1042</v>
       </c>
       <c r="E137" t="n">
-        <v>9438457</v>
+        <v>9551646</v>
       </c>
       <c r="F137" t="inlineStr">
         <is>
@@ -7591,13 +7591,13 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>16821</v>
+        <v>16823</v>
       </c>
       <c r="D141" t="n">
         <v>3896</v>
       </c>
       <c r="E141" t="n">
-        <v>47218540</v>
+        <v>47343599</v>
       </c>
       <c r="F141" t="inlineStr">
         <is>
@@ -36151,13 +36151,13 @@
         </is>
       </c>
       <c r="C701" t="n">
-        <v>17559</v>
+        <v>17560</v>
       </c>
       <c r="D701" t="n">
         <v>3338</v>
       </c>
       <c r="E701" t="n">
-        <v>38636494</v>
+        <v>38644994</v>
       </c>
       <c r="F701" t="inlineStr">
         <is>
@@ -39670,13 +39670,13 @@
         </is>
       </c>
       <c r="C770" t="n">
-        <v>14070</v>
+        <v>14071</v>
       </c>
       <c r="D770" t="n">
         <v>1609</v>
       </c>
       <c r="E770" t="n">
-        <v>82794047</v>
+        <v>82795436</v>
       </c>
       <c r="F770" t="inlineStr">
         <is>
@@ -42985,13 +42985,13 @@
         </is>
       </c>
       <c r="C835" t="n">
-        <v>26302</v>
+        <v>26303</v>
       </c>
       <c r="D835" t="n">
         <v>5381</v>
       </c>
       <c r="E835" t="n">
-        <v>100329662</v>
+        <v>100332723</v>
       </c>
       <c r="F835" t="inlineStr">
         <is>
@@ -43648,13 +43648,13 @@
         </is>
       </c>
       <c r="C848" t="n">
-        <v>21668</v>
+        <v>21669</v>
       </c>
       <c r="D848" t="n">
         <v>4245</v>
       </c>
       <c r="E848" t="n">
-        <v>86103054</v>
+        <v>86106487</v>
       </c>
       <c r="F848" t="inlineStr">
         <is>
@@ -43852,13 +43852,13 @@
         </is>
       </c>
       <c r="C852" t="n">
-        <v>108674</v>
+        <v>108679</v>
       </c>
       <c r="D852" t="n">
         <v>19716</v>
       </c>
       <c r="E852" t="n">
-        <v>562571463</v>
+        <v>562633402</v>
       </c>
       <c r="F852" t="inlineStr">
         <is>
@@ -43903,13 +43903,13 @@
         </is>
       </c>
       <c r="C853" t="n">
-        <v>90279</v>
+        <v>90281</v>
       </c>
       <c r="D853" t="n">
         <v>10476</v>
       </c>
       <c r="E853" t="n">
-        <v>233046340</v>
+        <v>233053140</v>
       </c>
       <c r="F853" t="inlineStr">
         <is>
@@ -43954,13 +43954,13 @@
         </is>
       </c>
       <c r="C854" t="n">
-        <v>182334</v>
+        <v>182338</v>
       </c>
       <c r="D854" t="n">
         <v>17497</v>
       </c>
       <c r="E854" t="n">
-        <v>1649470837</v>
+        <v>1649614994</v>
       </c>
       <c r="F854" t="inlineStr">
         <is>
@@ -44005,13 +44005,13 @@
         </is>
       </c>
       <c r="C855" t="n">
-        <v>60092</v>
+        <v>60097</v>
       </c>
       <c r="D855" t="n">
         <v>9814</v>
       </c>
       <c r="E855" t="n">
-        <v>289889023</v>
+        <v>290094100</v>
       </c>
       <c r="F855" t="inlineStr">
         <is>
@@ -44158,13 +44158,13 @@
         </is>
       </c>
       <c r="C858" t="n">
-        <v>183979</v>
+        <v>183981</v>
       </c>
       <c r="D858" t="n">
         <v>35383</v>
       </c>
       <c r="E858" t="n">
-        <v>554642248</v>
+        <v>554652958</v>
       </c>
       <c r="F858" t="inlineStr">
         <is>
@@ -44209,13 +44209,13 @@
         </is>
       </c>
       <c r="C859" t="n">
-        <v>51346</v>
+        <v>51351</v>
       </c>
       <c r="D859" t="n">
         <v>6433</v>
       </c>
       <c r="E859" t="n">
-        <v>425085323</v>
+        <v>425133828</v>
       </c>
       <c r="F859" t="inlineStr">
         <is>
@@ -44362,13 +44362,13 @@
         </is>
       </c>
       <c r="C862" t="n">
-        <v>115032</v>
+        <v>115036</v>
       </c>
       <c r="D862" t="n">
         <v>14332</v>
       </c>
       <c r="E862" t="n">
-        <v>419013088</v>
+        <v>419279805</v>
       </c>
       <c r="F862" t="inlineStr">
         <is>
@@ -44413,13 +44413,13 @@
         </is>
       </c>
       <c r="C863" t="n">
-        <v>48577</v>
+        <v>48579</v>
       </c>
       <c r="D863" t="n">
         <v>8874</v>
       </c>
       <c r="E863" t="n">
-        <v>133248201</v>
+        <v>133251201</v>
       </c>
       <c r="F863" t="inlineStr">
         <is>
@@ -45688,13 +45688,13 @@
         </is>
       </c>
       <c r="C888" t="n">
-        <v>32756</v>
+        <v>32760</v>
       </c>
       <c r="D888" t="n">
         <v>3652</v>
       </c>
       <c r="E888" t="n">
-        <v>189781316</v>
+        <v>189821316</v>
       </c>
       <c r="F888" t="inlineStr">
         <is>
@@ -46810,13 +46810,13 @@
         </is>
       </c>
       <c r="C910" t="n">
-        <v>12342</v>
+        <v>12343</v>
       </c>
       <c r="D910" t="n">
         <v>1777</v>
       </c>
       <c r="E910" t="n">
-        <v>50126858</v>
+        <v>50175329</v>
       </c>
       <c r="F910" t="inlineStr">
         <is>
@@ -50788,13 +50788,13 @@
         </is>
       </c>
       <c r="C988" t="n">
-        <v>4713</v>
+        <v>4714</v>
       </c>
       <c r="D988" t="n">
         <v>522</v>
       </c>
       <c r="E988" t="n">
-        <v>11824889</v>
+        <v>11992288</v>
       </c>
       <c r="F988" t="inlineStr">
         <is>
@@ -51553,13 +51553,13 @@
         </is>
       </c>
       <c r="C1003" t="n">
-        <v>15013</v>
+        <v>15015</v>
       </c>
       <c r="D1003" t="n">
         <v>3466</v>
       </c>
       <c r="E1003" t="n">
-        <v>43437166</v>
+        <v>43440166</v>
       </c>
       <c r="F1003" t="inlineStr">
         <is>
@@ -54919,13 +54919,13 @@
         </is>
       </c>
       <c r="C1069" t="n">
-        <v>28338</v>
+        <v>28339</v>
       </c>
       <c r="D1069" t="n">
         <v>3138</v>
       </c>
       <c r="E1069" t="n">
-        <v>170449362</v>
+        <v>170516377</v>
       </c>
       <c r="F1069" t="inlineStr">
         <is>
@@ -63283,13 +63283,13 @@
         </is>
       </c>
       <c r="C1233" t="n">
-        <v>7394</v>
+        <v>7396</v>
       </c>
       <c r="D1233" t="n">
         <v>1711</v>
       </c>
       <c r="E1233" t="n">
-        <v>19500422</v>
+        <v>19519773</v>
       </c>
       <c r="F1233" t="inlineStr">
         <is>
@@ -77563,13 +77563,13 @@
         </is>
       </c>
       <c r="C1513" t="n">
-        <v>17942</v>
+        <v>17943</v>
       </c>
       <c r="D1513" t="n">
         <v>2408</v>
       </c>
       <c r="E1513" t="n">
-        <v>57090067</v>
+        <v>57096276</v>
       </c>
       <c r="F1513" t="inlineStr">
         <is>

--- a/published-data/fonds-solidarite/fds-2022-06-24/fonds-solidarite-volet-1-departemental-naf.xlsx
+++ b/published-data/fonds-solidarite/fds-2022-06-24/fonds-solidarite-volet-1-departemental-naf.xlsx
@@ -7081,13 +7081,13 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>8434</v>
+        <v>8435</v>
       </c>
       <c r="D131" t="n">
         <v>1775</v>
       </c>
       <c r="E131" t="n">
-        <v>36535171</v>
+        <v>36538371</v>
       </c>
       <c r="F131" t="inlineStr">
         <is>
@@ -10192,13 +10192,13 @@
         </is>
       </c>
       <c r="C192" t="n">
-        <v>3881</v>
+        <v>3882</v>
       </c>
       <c r="D192" t="n">
         <v>528</v>
       </c>
       <c r="E192" t="n">
-        <v>25405782</v>
+        <v>25561489</v>
       </c>
       <c r="F192" t="inlineStr">
         <is>
@@ -19321,13 +19321,13 @@
         </is>
       </c>
       <c r="C371" t="n">
-        <v>16374</v>
+        <v>16376</v>
       </c>
       <c r="D371" t="n">
         <v>3953</v>
       </c>
       <c r="E371" t="n">
-        <v>56186627</v>
+        <v>56194425</v>
       </c>
       <c r="F371" t="inlineStr">
         <is>
@@ -22228,13 +22228,13 @@
         </is>
       </c>
       <c r="C428" t="n">
-        <v>1939</v>
+        <v>1940</v>
       </c>
       <c r="D428" t="n">
         <v>435</v>
       </c>
       <c r="E428" t="n">
-        <v>6596524</v>
+        <v>6608777</v>
       </c>
       <c r="F428" t="inlineStr">
         <is>
@@ -36253,13 +36253,13 @@
         </is>
       </c>
       <c r="C703" t="n">
-        <v>19731</v>
+        <v>19732</v>
       </c>
       <c r="D703" t="n">
         <v>2228</v>
       </c>
       <c r="E703" t="n">
-        <v>56664962</v>
+        <v>56667618</v>
       </c>
       <c r="F703" t="inlineStr">
         <is>
@@ -42271,13 +42271,13 @@
         </is>
       </c>
       <c r="C821" t="n">
-        <v>4765</v>
+        <v>4767</v>
       </c>
       <c r="D821" t="n">
         <v>946</v>
       </c>
       <c r="E821" t="n">
-        <v>10638776</v>
+        <v>10694845</v>
       </c>
       <c r="F821" t="inlineStr">
         <is>
@@ -43852,13 +43852,13 @@
         </is>
       </c>
       <c r="C852" t="n">
-        <v>108679</v>
+        <v>108685</v>
       </c>
       <c r="D852" t="n">
         <v>19716</v>
       </c>
       <c r="E852" t="n">
-        <v>562633402</v>
+        <v>562770749</v>
       </c>
       <c r="F852" t="inlineStr">
         <is>
@@ -43954,13 +43954,13 @@
         </is>
       </c>
       <c r="C854" t="n">
-        <v>182338</v>
+        <v>182351</v>
       </c>
       <c r="D854" t="n">
         <v>17497</v>
       </c>
       <c r="E854" t="n">
-        <v>1649614994</v>
+        <v>1649728177</v>
       </c>
       <c r="F854" t="inlineStr">
         <is>
@@ -44005,13 +44005,13 @@
         </is>
       </c>
       <c r="C855" t="n">
-        <v>60097</v>
+        <v>60098</v>
       </c>
       <c r="D855" t="n">
         <v>9814</v>
       </c>
       <c r="E855" t="n">
-        <v>290094100</v>
+        <v>290111348</v>
       </c>
       <c r="F855" t="inlineStr">
         <is>
@@ -44158,13 +44158,13 @@
         </is>
       </c>
       <c r="C858" t="n">
-        <v>183981</v>
+        <v>183991</v>
       </c>
       <c r="D858" t="n">
         <v>35383</v>
       </c>
       <c r="E858" t="n">
-        <v>554652958</v>
+        <v>554695688</v>
       </c>
       <c r="F858" t="inlineStr">
         <is>
@@ -44362,13 +44362,13 @@
         </is>
       </c>
       <c r="C862" t="n">
-        <v>115036</v>
+        <v>115043</v>
       </c>
       <c r="D862" t="n">
         <v>14332</v>
       </c>
       <c r="E862" t="n">
-        <v>419279805</v>
+        <v>419328126</v>
       </c>
       <c r="F862" t="inlineStr">
         <is>
@@ -44413,13 +44413,13 @@
         </is>
       </c>
       <c r="C863" t="n">
-        <v>48579</v>
+        <v>48581</v>
       </c>
       <c r="D863" t="n">
         <v>8874</v>
       </c>
       <c r="E863" t="n">
-        <v>133251201</v>
+        <v>133257426</v>
       </c>
       <c r="F863" t="inlineStr">
         <is>
@@ -45943,13 +45943,13 @@
         </is>
       </c>
       <c r="C893" t="n">
-        <v>11754</v>
+        <v>11759</v>
       </c>
       <c r="D893" t="n">
         <v>1958</v>
       </c>
       <c r="E893" t="n">
-        <v>55433813</v>
+        <v>55477613</v>
       </c>
       <c r="F893" t="inlineStr">
         <is>
@@ -48646,13 +48646,13 @@
         </is>
       </c>
       <c r="C946" t="n">
-        <v>8522</v>
+        <v>8525</v>
       </c>
       <c r="D946" t="n">
         <v>3425</v>
       </c>
       <c r="E946" t="n">
-        <v>11268736</v>
+        <v>11272576</v>
       </c>
       <c r="F946" t="inlineStr">
         <is>
@@ -50431,13 +50431,13 @@
         </is>
       </c>
       <c r="C981" t="n">
-        <v>3637</v>
+        <v>3639</v>
       </c>
       <c r="D981" t="n">
         <v>402</v>
       </c>
       <c r="E981" t="n">
-        <v>11293707</v>
+        <v>11320543</v>
       </c>
       <c r="F981" t="inlineStr">
         <is>
@@ -75472,13 +75472,13 @@
         </is>
       </c>
       <c r="C1472" t="n">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="D1472" t="n">
         <v>162</v>
       </c>
       <c r="E1472" t="n">
-        <v>1512006</v>
+        <v>1525504</v>
       </c>
       <c r="F1472" t="inlineStr">
         <is>
@@ -77053,13 +77053,13 @@
         </is>
       </c>
       <c r="C1503" t="n">
-        <v>23430</v>
+        <v>23436</v>
       </c>
       <c r="D1503" t="n">
         <v>5554</v>
       </c>
       <c r="E1503" t="n">
-        <v>80133363</v>
+        <v>80142363</v>
       </c>
       <c r="F1503" t="inlineStr">
         <is>
@@ -83326,13 +83326,13 @@
         </is>
       </c>
       <c r="C1626" t="n">
-        <v>18644</v>
+        <v>18645</v>
       </c>
       <c r="D1626" t="n">
         <v>3297</v>
       </c>
       <c r="E1626" t="n">
-        <v>88543927</v>
+        <v>88553927</v>
       </c>
       <c r="F1626" t="inlineStr">
         <is>
@@ -85672,13 +85672,13 @@
         </is>
       </c>
       <c r="C1672" t="n">
-        <v>25351</v>
+        <v>25353</v>
       </c>
       <c r="D1672" t="n">
         <v>2703</v>
       </c>
       <c r="E1672" t="n">
-        <v>143688565</v>
+        <v>143693251</v>
       </c>
       <c r="F1672" t="inlineStr">
         <is>

--- a/published-data/fonds-solidarite/fds-2022-06-24/fonds-solidarite-volet-1-departemental-naf.xlsx
+++ b/published-data/fonds-solidarite/fds-2022-06-24/fonds-solidarite-volet-1-departemental-naf.xlsx
@@ -706,13 +706,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>10423</v>
+        <v>10424</v>
       </c>
       <c r="D6" t="n">
         <v>2602</v>
       </c>
       <c r="E6" t="n">
-        <v>31690584</v>
+        <v>31889084</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -1675,13 +1675,13 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>10082</v>
+        <v>10083</v>
       </c>
       <c r="D25" t="n">
         <v>1062</v>
       </c>
       <c r="E25" t="n">
-        <v>50563158</v>
+        <v>50564728</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -8101,13 +8101,13 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>8108</v>
+        <v>8110</v>
       </c>
       <c r="D151" t="n">
         <v>1044</v>
       </c>
       <c r="E151" t="n">
-        <v>25409212</v>
+        <v>25478817</v>
       </c>
       <c r="F151" t="inlineStr">
         <is>
@@ -27583,13 +27583,13 @@
         </is>
       </c>
       <c r="C533" t="n">
-        <v>4113</v>
+        <v>4115</v>
       </c>
       <c r="D533" t="n">
         <v>1017</v>
       </c>
       <c r="E533" t="n">
-        <v>10520616</v>
+        <v>10523616</v>
       </c>
       <c r="F533" t="inlineStr">
         <is>
@@ -40537,13 +40537,13 @@
         </is>
       </c>
       <c r="C787" t="n">
-        <v>30435</v>
+        <v>30436</v>
       </c>
       <c r="D787" t="n">
         <v>3282</v>
       </c>
       <c r="E787" t="n">
-        <v>171571815</v>
+        <v>171580113</v>
       </c>
       <c r="F787" t="inlineStr">
         <is>
@@ -43036,13 +43036,13 @@
         </is>
       </c>
       <c r="C836" t="n">
-        <v>78169</v>
+        <v>78170</v>
       </c>
       <c r="D836" t="n">
         <v>8364</v>
       </c>
       <c r="E836" t="n">
-        <v>184749597</v>
+        <v>184932064</v>
       </c>
       <c r="F836" t="inlineStr">
         <is>
@@ -43648,13 +43648,13 @@
         </is>
       </c>
       <c r="C848" t="n">
-        <v>21669</v>
+        <v>21670</v>
       </c>
       <c r="D848" t="n">
         <v>4245</v>
       </c>
       <c r="E848" t="n">
-        <v>86106487</v>
+        <v>86109966</v>
       </c>
       <c r="F848" t="inlineStr">
         <is>
@@ -43852,13 +43852,13 @@
         </is>
       </c>
       <c r="C852" t="n">
-        <v>108685</v>
+        <v>108687</v>
       </c>
       <c r="D852" t="n">
         <v>19716</v>
       </c>
       <c r="E852" t="n">
-        <v>562770749</v>
+        <v>562899380</v>
       </c>
       <c r="F852" t="inlineStr">
         <is>
@@ -43954,13 +43954,13 @@
         </is>
       </c>
       <c r="C854" t="n">
-        <v>182351</v>
+        <v>182356</v>
       </c>
       <c r="D854" t="n">
         <v>17497</v>
       </c>
       <c r="E854" t="n">
-        <v>1649728177</v>
+        <v>1649768736</v>
       </c>
       <c r="F854" t="inlineStr">
         <is>
@@ -44005,13 +44005,13 @@
         </is>
       </c>
       <c r="C855" t="n">
-        <v>60098</v>
+        <v>60100</v>
       </c>
       <c r="D855" t="n">
         <v>9814</v>
       </c>
       <c r="E855" t="n">
-        <v>290111348</v>
+        <v>290213481</v>
       </c>
       <c r="F855" t="inlineStr">
         <is>
@@ -44158,13 +44158,13 @@
         </is>
       </c>
       <c r="C858" t="n">
-        <v>183991</v>
+        <v>183998</v>
       </c>
       <c r="D858" t="n">
         <v>35383</v>
       </c>
       <c r="E858" t="n">
-        <v>554695688</v>
+        <v>554913579</v>
       </c>
       <c r="F858" t="inlineStr">
         <is>
@@ -44209,13 +44209,13 @@
         </is>
       </c>
       <c r="C859" t="n">
-        <v>51351</v>
+        <v>51354</v>
       </c>
       <c r="D859" t="n">
         <v>6433</v>
       </c>
       <c r="E859" t="n">
-        <v>425133828</v>
+        <v>425298111</v>
       </c>
       <c r="F859" t="inlineStr">
         <is>
@@ -44362,13 +44362,13 @@
         </is>
       </c>
       <c r="C862" t="n">
-        <v>115043</v>
+        <v>115046</v>
       </c>
       <c r="D862" t="n">
         <v>14332</v>
       </c>
       <c r="E862" t="n">
-        <v>419328126</v>
+        <v>419356662</v>
       </c>
       <c r="F862" t="inlineStr">
         <is>
@@ -44413,13 +44413,13 @@
         </is>
       </c>
       <c r="C863" t="n">
-        <v>48581</v>
+        <v>48582</v>
       </c>
       <c r="D863" t="n">
         <v>8874</v>
       </c>
       <c r="E863" t="n">
-        <v>133257426</v>
+        <v>133264330</v>
       </c>
       <c r="F863" t="inlineStr">
         <is>
@@ -45739,13 +45739,13 @@
         </is>
       </c>
       <c r="C889" t="n">
-        <v>9198</v>
+        <v>9199</v>
       </c>
       <c r="D889" t="n">
         <v>1689</v>
       </c>
       <c r="E889" t="n">
-        <v>23366608</v>
+        <v>23376608</v>
       </c>
       <c r="F889" t="inlineStr">
         <is>
@@ -45892,13 +45892,13 @@
         </is>
       </c>
       <c r="C892" t="n">
-        <v>25959</v>
+        <v>25961</v>
       </c>
       <c r="D892" t="n">
         <v>5120</v>
       </c>
       <c r="E892" t="n">
-        <v>67484198</v>
+        <v>67484966</v>
       </c>
       <c r="F892" t="inlineStr">
         <is>
@@ -45943,13 +45943,13 @@
         </is>
       </c>
       <c r="C893" t="n">
-        <v>11759</v>
+        <v>11761</v>
       </c>
       <c r="D893" t="n">
         <v>1958</v>
       </c>
       <c r="E893" t="n">
-        <v>55477613</v>
+        <v>55504090</v>
       </c>
       <c r="F893" t="inlineStr">
         <is>
@@ -46810,13 +46810,13 @@
         </is>
       </c>
       <c r="C910" t="n">
-        <v>12343</v>
+        <v>12346</v>
       </c>
       <c r="D910" t="n">
         <v>1777</v>
       </c>
       <c r="E910" t="n">
-        <v>50175329</v>
+        <v>50191658</v>
       </c>
       <c r="F910" t="inlineStr">
         <is>
@@ -66139,13 +66139,13 @@
         </is>
       </c>
       <c r="C1289" t="n">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="D1289" t="n">
         <v>132</v>
       </c>
       <c r="E1289" t="n">
-        <v>871510</v>
+        <v>871670</v>
       </c>
       <c r="F1289" t="inlineStr">
         <is>
@@ -77053,13 +77053,13 @@
         </is>
       </c>
       <c r="C1503" t="n">
-        <v>23436</v>
+        <v>23437</v>
       </c>
       <c r="D1503" t="n">
         <v>5554</v>
       </c>
       <c r="E1503" t="n">
-        <v>80142363</v>
+        <v>80159957</v>
       </c>
       <c r="F1503" t="inlineStr">
         <is>

--- a/published-data/fonds-solidarite/fds-2022-06-24/fonds-solidarite-volet-1-departemental-naf.xlsx
+++ b/published-data/fonds-solidarite/fds-2022-06-24/fonds-solidarite-volet-1-departemental-naf.xlsx
@@ -5959,13 +5959,13 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>35434</v>
+        <v>35436</v>
       </c>
       <c r="D109" t="n">
         <v>3825</v>
       </c>
       <c r="E109" t="n">
-        <v>286313376</v>
+        <v>286386802</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
@@ -6265,13 +6265,13 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>29209</v>
+        <v>29213</v>
       </c>
       <c r="D115" t="n">
         <v>4239</v>
       </c>
       <c r="E115" t="n">
-        <v>64745244</v>
+        <v>64756164</v>
       </c>
       <c r="F115" t="inlineStr">
         <is>
@@ -9886,13 +9886,13 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>23960</v>
+        <v>23964</v>
       </c>
       <c r="D186" t="n">
         <v>5280</v>
       </c>
       <c r="E186" t="n">
-        <v>51846646</v>
+        <v>51848462</v>
       </c>
       <c r="F186" t="inlineStr">
         <is>
@@ -18199,13 +18199,13 @@
         </is>
       </c>
       <c r="C349" t="n">
-        <v>1338</v>
+        <v>1339</v>
       </c>
       <c r="D349" t="n">
         <v>433</v>
       </c>
       <c r="E349" t="n">
-        <v>4331767</v>
+        <v>4340267</v>
       </c>
       <c r="F349" t="inlineStr">
         <is>
@@ -35692,13 +35692,13 @@
         </is>
       </c>
       <c r="C692" t="n">
-        <v>2268</v>
+        <v>2269</v>
       </c>
       <c r="D692" t="n">
         <v>379</v>
       </c>
       <c r="E692" t="n">
-        <v>3972955</v>
+        <v>3974406</v>
       </c>
       <c r="F692" t="inlineStr">
         <is>
@@ -43852,13 +43852,13 @@
         </is>
       </c>
       <c r="C852" t="n">
-        <v>108687</v>
+        <v>108689</v>
       </c>
       <c r="D852" t="n">
         <v>19716</v>
       </c>
       <c r="E852" t="n">
-        <v>562899380</v>
+        <v>562905413</v>
       </c>
       <c r="F852" t="inlineStr">
         <is>
@@ -43954,13 +43954,13 @@
         </is>
       </c>
       <c r="C854" t="n">
-        <v>182356</v>
+        <v>182366</v>
       </c>
       <c r="D854" t="n">
         <v>17497</v>
       </c>
       <c r="E854" t="n">
-        <v>1649768736</v>
+        <v>1649886017</v>
       </c>
       <c r="F854" t="inlineStr">
         <is>
@@ -44158,13 +44158,13 @@
         </is>
       </c>
       <c r="C858" t="n">
-        <v>183998</v>
+        <v>184002</v>
       </c>
       <c r="D858" t="n">
         <v>35383</v>
       </c>
       <c r="E858" t="n">
-        <v>554913579</v>
+        <v>554919903</v>
       </c>
       <c r="F858" t="inlineStr">
         <is>
@@ -44209,13 +44209,13 @@
         </is>
       </c>
       <c r="C859" t="n">
-        <v>51354</v>
+        <v>51356</v>
       </c>
       <c r="D859" t="n">
         <v>6433</v>
       </c>
       <c r="E859" t="n">
-        <v>425298111</v>
+        <v>425352635</v>
       </c>
       <c r="F859" t="inlineStr">
         <is>
@@ -44260,13 +44260,13 @@
         </is>
       </c>
       <c r="C860" t="n">
-        <v>34672</v>
+        <v>34676</v>
       </c>
       <c r="D860" t="n">
         <v>5556</v>
       </c>
       <c r="E860" t="n">
-        <v>70125598</v>
+        <v>70129436</v>
       </c>
       <c r="F860" t="inlineStr">
         <is>
@@ -44362,13 +44362,13 @@
         </is>
       </c>
       <c r="C862" t="n">
-        <v>115046</v>
+        <v>115051</v>
       </c>
       <c r="D862" t="n">
         <v>14332</v>
       </c>
       <c r="E862" t="n">
-        <v>419356662</v>
+        <v>419389296</v>
       </c>
       <c r="F862" t="inlineStr">
         <is>
@@ -45586,13 +45586,13 @@
         </is>
       </c>
       <c r="C886" t="n">
-        <v>40902</v>
+        <v>40903</v>
       </c>
       <c r="D886" t="n">
         <v>8380</v>
       </c>
       <c r="E886" t="n">
-        <v>166050329</v>
+        <v>166094747</v>
       </c>
       <c r="F886" t="inlineStr">
         <is>
@@ -45688,13 +45688,13 @@
         </is>
       </c>
       <c r="C888" t="n">
-        <v>32760</v>
+        <v>32766</v>
       </c>
       <c r="D888" t="n">
         <v>3652</v>
       </c>
       <c r="E888" t="n">
-        <v>189821316</v>
+        <v>189872409</v>
       </c>
       <c r="F888" t="inlineStr">
         <is>
@@ -60478,13 +60478,13 @@
         </is>
       </c>
       <c r="C1178" t="n">
-        <v>18377</v>
+        <v>18378</v>
       </c>
       <c r="D1178" t="n">
         <v>3644</v>
       </c>
       <c r="E1178" t="n">
-        <v>100420737</v>
+        <v>100438189</v>
       </c>
       <c r="F1178" t="inlineStr">
         <is>
@@ -63844,13 +63844,13 @@
         </is>
       </c>
       <c r="C1244" t="n">
-        <v>4712</v>
+        <v>4713</v>
       </c>
       <c r="D1244" t="n">
         <v>1104</v>
       </c>
       <c r="E1244" t="n">
-        <v>8345339</v>
+        <v>8346839</v>
       </c>
       <c r="F1244" t="inlineStr">
         <is>
@@ -82969,13 +82969,13 @@
         </is>
       </c>
       <c r="C1619" t="n">
-        <v>65679</v>
+        <v>65680</v>
       </c>
       <c r="D1619" t="n">
         <v>13319</v>
       </c>
       <c r="E1619" t="n">
-        <v>202674064</v>
+        <v>202675564</v>
       </c>
       <c r="F1619" t="inlineStr">
         <is>

--- a/published-data/fonds-solidarite/fds-2022-06-24/fonds-solidarite-volet-1-departemental-naf.xlsx
+++ b/published-data/fonds-solidarite/fds-2022-06-24/fonds-solidarite-volet-1-departemental-naf.xlsx
@@ -5959,13 +5959,13 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>35436</v>
+        <v>35438</v>
       </c>
       <c r="D109" t="n">
         <v>3825</v>
       </c>
       <c r="E109" t="n">
-        <v>286386802</v>
+        <v>286481056</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
@@ -9376,13 +9376,13 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>41190</v>
+        <v>41191</v>
       </c>
       <c r="D176" t="n">
         <v>5280</v>
       </c>
       <c r="E176" t="n">
-        <v>86427219</v>
+        <v>86428362</v>
       </c>
       <c r="F176" t="inlineStr">
         <is>
@@ -10549,13 +10549,13 @@
         </is>
       </c>
       <c r="C199" t="n">
-        <v>43533</v>
+        <v>43535</v>
       </c>
       <c r="D199" t="n">
         <v>5147</v>
       </c>
       <c r="E199" t="n">
-        <v>117977955</v>
+        <v>117979845</v>
       </c>
       <c r="F199" t="inlineStr">
         <is>
@@ -17281,13 +17281,13 @@
         </is>
       </c>
       <c r="C331" t="n">
-        <v>3420</v>
+        <v>3421</v>
       </c>
       <c r="D331" t="n">
         <v>422</v>
       </c>
       <c r="E331" t="n">
-        <v>10675738</v>
+        <v>10683308</v>
       </c>
       <c r="F331" t="inlineStr">
         <is>
@@ -18862,13 +18862,13 @@
         </is>
       </c>
       <c r="C362" t="n">
-        <v>4890</v>
+        <v>4891</v>
       </c>
       <c r="D362" t="n">
         <v>853</v>
       </c>
       <c r="E362" t="n">
-        <v>8574459</v>
+        <v>8578037</v>
       </c>
       <c r="F362" t="inlineStr">
         <is>
@@ -24625,13 +24625,13 @@
         </is>
       </c>
       <c r="C475" t="n">
-        <v>5622</v>
+        <v>5623</v>
       </c>
       <c r="D475" t="n">
         <v>1221</v>
       </c>
       <c r="E475" t="n">
-        <v>20251769</v>
+        <v>20261769</v>
       </c>
       <c r="F475" t="inlineStr">
         <is>
@@ -34570,13 +34570,13 @@
         </is>
       </c>
       <c r="C670" t="n">
-        <v>22066</v>
+        <v>22067</v>
       </c>
       <c r="D670" t="n">
         <v>2291</v>
       </c>
       <c r="E670" t="n">
-        <v>132129255</v>
+        <v>132137220</v>
       </c>
       <c r="F670" t="inlineStr">
         <is>
@@ -36712,13 +36712,13 @@
         </is>
       </c>
       <c r="C712" t="n">
-        <v>5646</v>
+        <v>5647</v>
       </c>
       <c r="D712" t="n">
         <v>1176</v>
       </c>
       <c r="E712" t="n">
-        <v>8180829</v>
+        <v>8181370</v>
       </c>
       <c r="F712" t="inlineStr">
         <is>
@@ -43954,13 +43954,13 @@
         </is>
       </c>
       <c r="C854" t="n">
-        <v>182366</v>
+        <v>182372</v>
       </c>
       <c r="D854" t="n">
         <v>17497</v>
       </c>
       <c r="E854" t="n">
-        <v>1649886017</v>
+        <v>1649917706</v>
       </c>
       <c r="F854" t="inlineStr">
         <is>
@@ -44158,13 +44158,13 @@
         </is>
       </c>
       <c r="C858" t="n">
-        <v>184002</v>
+        <v>184007</v>
       </c>
       <c r="D858" t="n">
         <v>35383</v>
       </c>
       <c r="E858" t="n">
-        <v>554919903</v>
+        <v>554970412</v>
       </c>
       <c r="F858" t="inlineStr">
         <is>
@@ -44362,13 +44362,13 @@
         </is>
       </c>
       <c r="C862" t="n">
-        <v>115051</v>
+        <v>115052</v>
       </c>
       <c r="D862" t="n">
         <v>14332</v>
       </c>
       <c r="E862" t="n">
-        <v>419389296</v>
+        <v>419394496</v>
       </c>
       <c r="F862" t="inlineStr">
         <is>
@@ -45637,13 +45637,13 @@
         </is>
       </c>
       <c r="C887" t="n">
-        <v>127520</v>
+        <v>127521</v>
       </c>
       <c r="D887" t="n">
         <v>13778</v>
       </c>
       <c r="E887" t="n">
-        <v>277541052</v>
+        <v>277543404</v>
       </c>
       <c r="F887" t="inlineStr">
         <is>
@@ -45892,13 +45892,13 @@
         </is>
       </c>
       <c r="C892" t="n">
-        <v>25961</v>
+        <v>25963</v>
       </c>
       <c r="D892" t="n">
         <v>5120</v>
       </c>
       <c r="E892" t="n">
-        <v>67484966</v>
+        <v>67496502</v>
       </c>
       <c r="F892" t="inlineStr">
         <is>
@@ -46096,13 +46096,13 @@
         </is>
       </c>
       <c r="C896" t="n">
-        <v>23641</v>
+        <v>23644</v>
       </c>
       <c r="D896" t="n">
         <v>3068</v>
       </c>
       <c r="E896" t="n">
-        <v>70474166</v>
+        <v>70488074</v>
       </c>
       <c r="F896" t="inlineStr">
         <is>
@@ -46810,13 +46810,13 @@
         </is>
       </c>
       <c r="C910" t="n">
-        <v>12346</v>
+        <v>12347</v>
       </c>
       <c r="D910" t="n">
         <v>1777</v>
       </c>
       <c r="E910" t="n">
-        <v>50191658</v>
+        <v>50192746</v>
       </c>
       <c r="F910" t="inlineStr">
         <is>
@@ -46963,13 +46963,13 @@
         </is>
       </c>
       <c r="C913" t="n">
-        <v>22151</v>
+        <v>22152</v>
       </c>
       <c r="D913" t="n">
         <v>2798</v>
       </c>
       <c r="E913" t="n">
-        <v>65006713</v>
+        <v>65011116</v>
       </c>
       <c r="F913" t="inlineStr">
         <is>
@@ -49921,13 +49921,13 @@
         </is>
       </c>
       <c r="C971" t="n">
-        <v>13106</v>
+        <v>13108</v>
       </c>
       <c r="D971" t="n">
         <v>2290</v>
       </c>
       <c r="E971" t="n">
-        <v>33021580</v>
+        <v>33026608</v>
       </c>
       <c r="F971" t="inlineStr">
         <is>
@@ -50023,13 +50023,13 @@
         </is>
       </c>
       <c r="C973" t="n">
-        <v>11134</v>
+        <v>11135</v>
       </c>
       <c r="D973" t="n">
         <v>1314</v>
       </c>
       <c r="E973" t="n">
-        <v>44546213</v>
+        <v>44608881</v>
       </c>
       <c r="F973" t="inlineStr">
         <is>
@@ -55123,13 +55123,13 @@
         </is>
       </c>
       <c r="C1073" t="n">
-        <v>10720</v>
+        <v>10724</v>
       </c>
       <c r="D1073" t="n">
         <v>2267</v>
       </c>
       <c r="E1073" t="n">
-        <v>34164067</v>
+        <v>34183128</v>
       </c>
       <c r="F1073" t="inlineStr">
         <is>
@@ -61090,13 +61090,13 @@
         </is>
       </c>
       <c r="C1190" t="n">
-        <v>14379</v>
+        <v>14381</v>
       </c>
       <c r="D1190" t="n">
         <v>2709</v>
       </c>
       <c r="E1190" t="n">
-        <v>47812608</v>
+        <v>47829005</v>
       </c>
       <c r="F1190" t="inlineStr">
         <is>
@@ -61243,13 +61243,13 @@
         </is>
       </c>
       <c r="C1193" t="n">
-        <v>22509</v>
+        <v>22510</v>
       </c>
       <c r="D1193" t="n">
         <v>2821</v>
       </c>
       <c r="E1193" t="n">
-        <v>68117872</v>
+        <v>68129078</v>
       </c>
       <c r="F1193" t="inlineStr">
         <is>
@@ -63385,13 +63385,13 @@
         </is>
       </c>
       <c r="C1235" t="n">
-        <v>9283</v>
+        <v>9284</v>
       </c>
       <c r="D1235" t="n">
         <v>1003</v>
       </c>
       <c r="E1235" t="n">
-        <v>46614534</v>
+        <v>46624534</v>
       </c>
       <c r="F1235" t="inlineStr">
         <is>
@@ -82102,13 +82102,13 @@
         </is>
       </c>
       <c r="C1602" t="n">
-        <v>47413</v>
+        <v>47415</v>
       </c>
       <c r="D1602" t="n">
         <v>8772</v>
       </c>
       <c r="E1602" t="n">
-        <v>161891301</v>
+        <v>162031092</v>
       </c>
       <c r="F1602" t="inlineStr">
         <is>
@@ -82663,13 +82663,13 @@
         </is>
       </c>
       <c r="C1613" t="n">
-        <v>25885</v>
+        <v>25886</v>
       </c>
       <c r="D1613" t="n">
         <v>4989</v>
       </c>
       <c r="E1613" t="n">
-        <v>50560278</v>
+        <v>50602322</v>
       </c>
       <c r="F1613" t="inlineStr">
         <is>

--- a/published-data/fonds-solidarite/fds-2022-06-24/fonds-solidarite-volet-1-departemental-naf.xlsx
+++ b/published-data/fonds-solidarite/fds-2022-06-24/fonds-solidarite-volet-1-departemental-naf.xlsx
@@ -29725,13 +29725,13 @@
         </is>
       </c>
       <c r="C575" t="n">
-        <v>6469</v>
+        <v>6470</v>
       </c>
       <c r="D575" t="n">
         <v>1217</v>
       </c>
       <c r="E575" t="n">
-        <v>24914766</v>
+        <v>24916266</v>
       </c>
       <c r="F575" t="inlineStr">
         <is>
@@ -40129,13 +40129,13 @@
         </is>
       </c>
       <c r="C779" t="n">
-        <v>8753</v>
+        <v>8756</v>
       </c>
       <c r="D779" t="n">
         <v>1951</v>
       </c>
       <c r="E779" t="n">
-        <v>16631139</v>
+        <v>16649445</v>
       </c>
       <c r="F779" t="inlineStr">
         <is>
@@ -41812,13 +41812,13 @@
         </is>
       </c>
       <c r="C812" t="n">
-        <v>5680</v>
+        <v>5681</v>
       </c>
       <c r="D812" t="n">
         <v>1348</v>
       </c>
       <c r="E812" t="n">
-        <v>9753555</v>
+        <v>9754548</v>
       </c>
       <c r="F812" t="inlineStr">
         <is>
@@ -43648,13 +43648,13 @@
         </is>
       </c>
       <c r="C848" t="n">
-        <v>21670</v>
+        <v>21671</v>
       </c>
       <c r="D848" t="n">
         <v>4245</v>
       </c>
       <c r="E848" t="n">
-        <v>86109966</v>
+        <v>86112329</v>
       </c>
       <c r="F848" t="inlineStr">
         <is>
@@ -43954,13 +43954,13 @@
         </is>
       </c>
       <c r="C854" t="n">
-        <v>182372</v>
+        <v>182373</v>
       </c>
       <c r="D854" t="n">
         <v>17497</v>
       </c>
       <c r="E854" t="n">
-        <v>1649917706</v>
+        <v>1649923187</v>
       </c>
       <c r="F854" t="inlineStr">
         <is>
@@ -44158,13 +44158,13 @@
         </is>
       </c>
       <c r="C858" t="n">
-        <v>184007</v>
+        <v>184008</v>
       </c>
       <c r="D858" t="n">
         <v>35383</v>
       </c>
       <c r="E858" t="n">
-        <v>554970412</v>
+        <v>555039984</v>
       </c>
       <c r="F858" t="inlineStr">
         <is>
@@ -44209,13 +44209,13 @@
         </is>
       </c>
       <c r="C859" t="n">
-        <v>51356</v>
+        <v>51358</v>
       </c>
       <c r="D859" t="n">
         <v>6433</v>
       </c>
       <c r="E859" t="n">
-        <v>425352635</v>
+        <v>425393670</v>
       </c>
       <c r="F859" t="inlineStr">
         <is>
@@ -44362,13 +44362,13 @@
         </is>
       </c>
       <c r="C862" t="n">
-        <v>115052</v>
+        <v>115053</v>
       </c>
       <c r="D862" t="n">
         <v>14332</v>
       </c>
       <c r="E862" t="n">
-        <v>419394496</v>
+        <v>419396896</v>
       </c>
       <c r="F862" t="inlineStr">
         <is>
@@ -44413,13 +44413,13 @@
         </is>
       </c>
       <c r="C863" t="n">
-        <v>48582</v>
+        <v>48583</v>
       </c>
       <c r="D863" t="n">
         <v>8874</v>
       </c>
       <c r="E863" t="n">
-        <v>133264330</v>
+        <v>133266850</v>
       </c>
       <c r="F863" t="inlineStr">
         <is>
@@ -45586,13 +45586,13 @@
         </is>
       </c>
       <c r="C886" t="n">
-        <v>40903</v>
+        <v>40905</v>
       </c>
       <c r="D886" t="n">
         <v>8380</v>
       </c>
       <c r="E886" t="n">
-        <v>166094747</v>
+        <v>166114189</v>
       </c>
       <c r="F886" t="inlineStr">
         <is>
@@ -45637,13 +45637,13 @@
         </is>
       </c>
       <c r="C887" t="n">
-        <v>127521</v>
+        <v>127524</v>
       </c>
       <c r="D887" t="n">
         <v>13778</v>
       </c>
       <c r="E887" t="n">
-        <v>277543404</v>
+        <v>277565293</v>
       </c>
       <c r="F887" t="inlineStr">
         <is>
@@ -45688,13 +45688,13 @@
         </is>
       </c>
       <c r="C888" t="n">
-        <v>32766</v>
+        <v>32767</v>
       </c>
       <c r="D888" t="n">
         <v>3652</v>
       </c>
       <c r="E888" t="n">
-        <v>189872409</v>
+        <v>189873909</v>
       </c>
       <c r="F888" t="inlineStr">
         <is>
@@ -45943,13 +45943,13 @@
         </is>
       </c>
       <c r="C893" t="n">
-        <v>11761</v>
+        <v>11786</v>
       </c>
       <c r="D893" t="n">
         <v>1958</v>
       </c>
       <c r="E893" t="n">
-        <v>55504090</v>
+        <v>55741487</v>
       </c>
       <c r="F893" t="inlineStr">
         <is>
@@ -49054,13 +49054,13 @@
         </is>
       </c>
       <c r="C954" t="n">
-        <v>21937</v>
+        <v>21938</v>
       </c>
       <c r="D954" t="n">
         <v>5228</v>
       </c>
       <c r="E954" t="n">
-        <v>40129490</v>
+        <v>40152988</v>
       </c>
       <c r="F954" t="inlineStr">
         <is>
@@ -82510,13 +82510,13 @@
         </is>
       </c>
       <c r="C1610" t="n">
-        <v>16139</v>
+        <v>16140</v>
       </c>
       <c r="D1610" t="n">
         <v>2431</v>
       </c>
       <c r="E1610" t="n">
-        <v>30032344</v>
+        <v>30035501</v>
       </c>
       <c r="F1610" t="inlineStr">
         <is>

--- a/published-data/fonds-solidarite/fds-2022-06-24/fonds-solidarite-volet-1-departemental-naf.xlsx
+++ b/published-data/fonds-solidarite/fds-2022-06-24/fonds-solidarite-volet-1-departemental-naf.xlsx
@@ -1675,13 +1675,13 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>10083</v>
+        <v>10084</v>
       </c>
       <c r="D25" t="n">
         <v>1062</v>
       </c>
       <c r="E25" t="n">
-        <v>50564728</v>
+        <v>50566298</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -28042,13 +28042,13 @@
         </is>
       </c>
       <c r="C542" t="n">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="D542" t="n">
         <v>398</v>
       </c>
       <c r="E542" t="n">
-        <v>1268298</v>
+        <v>1269798</v>
       </c>
       <c r="F542" t="inlineStr">
         <is>
@@ -42067,13 +42067,13 @@
         </is>
       </c>
       <c r="C817" t="n">
-        <v>11514</v>
+        <v>11515</v>
       </c>
       <c r="D817" t="n">
         <v>3779</v>
       </c>
       <c r="E817" t="n">
-        <v>23674013</v>
+        <v>23794201</v>
       </c>
       <c r="F817" t="inlineStr">
         <is>
@@ -42169,13 +42169,13 @@
         </is>
       </c>
       <c r="C819" t="n">
-        <v>42288</v>
+        <v>42289</v>
       </c>
       <c r="D819" t="n">
         <v>4810</v>
       </c>
       <c r="E819" t="n">
-        <v>95175201</v>
+        <v>95176414</v>
       </c>
       <c r="F819" t="inlineStr">
         <is>
@@ -43903,13 +43903,13 @@
         </is>
       </c>
       <c r="C853" t="n">
-        <v>90281</v>
+        <v>90283</v>
       </c>
       <c r="D853" t="n">
         <v>10476</v>
       </c>
       <c r="E853" t="n">
-        <v>233053140</v>
+        <v>233263140</v>
       </c>
       <c r="F853" t="inlineStr">
         <is>
@@ -43954,13 +43954,13 @@
         </is>
       </c>
       <c r="C854" t="n">
-        <v>182373</v>
+        <v>182377</v>
       </c>
       <c r="D854" t="n">
         <v>17497</v>
       </c>
       <c r="E854" t="n">
-        <v>1649923187</v>
+        <v>1649963187</v>
       </c>
       <c r="F854" t="inlineStr">
         <is>
@@ -44158,13 +44158,13 @@
         </is>
       </c>
       <c r="C858" t="n">
-        <v>184008</v>
+        <v>184009</v>
       </c>
       <c r="D858" t="n">
         <v>35383</v>
       </c>
       <c r="E858" t="n">
-        <v>555039984</v>
+        <v>555048484</v>
       </c>
       <c r="F858" t="inlineStr">
         <is>
@@ -44260,13 +44260,13 @@
         </is>
       </c>
       <c r="C860" t="n">
-        <v>34676</v>
+        <v>34677</v>
       </c>
       <c r="D860" t="n">
         <v>5556</v>
       </c>
       <c r="E860" t="n">
-        <v>70129436</v>
+        <v>70132036</v>
       </c>
       <c r="F860" t="inlineStr">
         <is>
@@ -44362,13 +44362,13 @@
         </is>
       </c>
       <c r="C862" t="n">
-        <v>115053</v>
+        <v>115054</v>
       </c>
       <c r="D862" t="n">
         <v>14332</v>
       </c>
       <c r="E862" t="n">
-        <v>419396896</v>
+        <v>419403738</v>
       </c>
       <c r="F862" t="inlineStr">
         <is>
@@ -45637,13 +45637,13 @@
         </is>
       </c>
       <c r="C887" t="n">
-        <v>127524</v>
+        <v>127528</v>
       </c>
       <c r="D887" t="n">
         <v>13778</v>
       </c>
       <c r="E887" t="n">
-        <v>277565293</v>
+        <v>277604705</v>
       </c>
       <c r="F887" t="inlineStr">
         <is>
@@ -45739,13 +45739,13 @@
         </is>
       </c>
       <c r="C889" t="n">
-        <v>9199</v>
+        <v>9200</v>
       </c>
       <c r="D889" t="n">
         <v>1689</v>
       </c>
       <c r="E889" t="n">
-        <v>23376608</v>
+        <v>23386608</v>
       </c>
       <c r="F889" t="inlineStr">
         <is>
@@ -45841,13 +45841,13 @@
         </is>
       </c>
       <c r="C891" t="n">
-        <v>3340</v>
+        <v>3342</v>
       </c>
       <c r="D891" t="n">
         <v>736</v>
       </c>
       <c r="E891" t="n">
-        <v>7327650</v>
+        <v>7347650</v>
       </c>
       <c r="F891" t="inlineStr">
         <is>
@@ -45943,13 +45943,13 @@
         </is>
       </c>
       <c r="C893" t="n">
-        <v>11786</v>
+        <v>11835</v>
       </c>
       <c r="D893" t="n">
         <v>1958</v>
       </c>
       <c r="E893" t="n">
-        <v>55741487</v>
+        <v>56196819</v>
       </c>
       <c r="F893" t="inlineStr">
         <is>
@@ -46147,13 +46147,13 @@
         </is>
       </c>
       <c r="C897" t="n">
-        <v>11618</v>
+        <v>11619</v>
       </c>
       <c r="D897" t="n">
         <v>2465</v>
       </c>
       <c r="E897" t="n">
-        <v>25277195</v>
+        <v>25279545</v>
       </c>
       <c r="F897" t="inlineStr">
         <is>
@@ -46453,13 +46453,13 @@
         </is>
       </c>
       <c r="C903" t="n">
-        <v>26108</v>
+        <v>26109</v>
       </c>
       <c r="D903" t="n">
         <v>5587</v>
       </c>
       <c r="E903" t="n">
-        <v>118583620</v>
+        <v>118647874</v>
       </c>
       <c r="F903" t="inlineStr">
         <is>
@@ -48289,13 +48289,13 @@
         </is>
       </c>
       <c r="C939" t="n">
-        <v>22817</v>
+        <v>22818</v>
       </c>
       <c r="D939" t="n">
         <v>2673</v>
       </c>
       <c r="E939" t="n">
-        <v>157459124</v>
+        <v>157470156</v>
       </c>
       <c r="F939" t="inlineStr">
         <is>
@@ -50278,13 +50278,13 @@
         </is>
       </c>
       <c r="C978" t="n">
-        <v>6430</v>
+        <v>6433</v>
       </c>
       <c r="D978" t="n">
         <v>979</v>
       </c>
       <c r="E978" t="n">
-        <v>19946922</v>
+        <v>19996314</v>
       </c>
       <c r="F978" t="inlineStr">
         <is>
@@ -61243,13 +61243,13 @@
         </is>
       </c>
       <c r="C1193" t="n">
-        <v>22510</v>
+        <v>22511</v>
       </c>
       <c r="D1193" t="n">
         <v>2821</v>
       </c>
       <c r="E1193" t="n">
-        <v>68129078</v>
+        <v>68133563</v>
       </c>
       <c r="F1193" t="inlineStr">
         <is>
@@ -66139,13 +66139,13 @@
         </is>
       </c>
       <c r="C1289" t="n">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="D1289" t="n">
         <v>132</v>
       </c>
       <c r="E1289" t="n">
-        <v>871670</v>
+        <v>873072</v>
       </c>
       <c r="F1289" t="inlineStr">
         <is>
@@ -83020,13 +83020,13 @@
         </is>
       </c>
       <c r="C1620" t="n">
-        <v>28433</v>
+        <v>28434</v>
       </c>
       <c r="D1620" t="n">
         <v>3812</v>
       </c>
       <c r="E1620" t="n">
-        <v>77149785</v>
+        <v>77159785</v>
       </c>
       <c r="F1620" t="inlineStr">
         <is>
@@ -83071,13 +83071,13 @@
         </is>
       </c>
       <c r="C1621" t="n">
-        <v>71821</v>
+        <v>71822</v>
       </c>
       <c r="D1621" t="n">
         <v>7476</v>
       </c>
       <c r="E1621" t="n">
-        <v>410118203</v>
+        <v>410128203</v>
       </c>
       <c r="F1621" t="inlineStr">
         <is>
@@ -83275,13 +83275,13 @@
         </is>
       </c>
       <c r="C1625" t="n">
-        <v>41907</v>
+        <v>41912</v>
       </c>
       <c r="D1625" t="n">
         <v>8880</v>
       </c>
       <c r="E1625" t="n">
-        <v>114646802</v>
+        <v>114712080</v>
       </c>
       <c r="F1625" t="inlineStr">
         <is>
